--- a/results/region_sale_05_posthoc_up2012.xlsx
+++ b/results/region_sale_05_posthoc_up2012.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>123082.6705</v>
+        <v>196119.6473</v>
       </c>
       <c r="E2" t="n">
         <v>0.001</v>
       </c>
       <c r="F2" t="n">
-        <v>100267.2246</v>
+        <v>154471.1881</v>
       </c>
       <c r="G2" t="n">
-        <v>145898.1165</v>
+        <v>237768.1066</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-6485.9002</v>
+        <v>-20913.9228</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8752</v>
+        <v>0.5767</v>
       </c>
       <c r="F3" t="n">
-        <v>-29301.3462</v>
+        <v>-63490.5578</v>
       </c>
       <c r="G3" t="n">
-        <v>16329.5457</v>
+        <v>21662.7122</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>102149.9156</v>
+        <v>187533.8758</v>
       </c>
       <c r="E4" t="n">
         <v>0.001</v>
       </c>
       <c r="F4" t="n">
-        <v>79334.4697</v>
+        <v>144928.8947</v>
       </c>
       <c r="G4" t="n">
-        <v>124965.3616</v>
+        <v>230138.857</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-129568.5707</v>
+        <v>-217033.5701</v>
       </c>
       <c r="E5" t="n">
         <v>0.001</v>
       </c>
       <c r="F5" t="n">
-        <v>-152384.0167</v>
+        <v>-257829.8749</v>
       </c>
       <c r="G5" t="n">
-        <v>-106753.1248</v>
+        <v>-176237.2653</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -605,16 +605,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-20932.7549</v>
+        <v>-8585.771500000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0857</v>
+        <v>0.9</v>
       </c>
       <c r="F6" t="n">
-        <v>-43748.2008</v>
+        <v>-49411.6585</v>
       </c>
       <c r="G6" t="n">
-        <v>1882.6911</v>
+        <v>32240.1156</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -635,16 +635,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>108635.8159</v>
+        <v>208447.7987</v>
       </c>
       <c r="E7" t="n">
         <v>0.001</v>
       </c>
       <c r="F7" t="n">
-        <v>85820.36990000001</v>
+        <v>166675.4544</v>
       </c>
       <c r="G7" t="n">
-        <v>131451.2618</v>
+        <v>250220.1429</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
